--- a/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67,98; 76,19</t>
+          <t>67,86; 76,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,19; 77,84</t>
+          <t>72,4; 77,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,55; 76,06</t>
+          <t>71,56; 76,34</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,0; 75,93</t>
+          <t>70,87; 75,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,2; 75,54</t>
+          <t>66,08; 74,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,18; 73,82</t>
+          <t>69,19; 73,7</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,97; 73,01</t>
+          <t>65,26; 72,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,11; 67,0</t>
+          <t>60,15; 66,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,64; 69,06</t>
+          <t>63,66; 68,94</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,38; 74,1</t>
+          <t>70,31; 74,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,15; 72,12</t>
+          <t>67,22; 72,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,2; 72,24</t>
+          <t>69,15; 72,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67,86; 76,4</t>
+          <t>67,98; 76,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,4; 77,91</t>
+          <t>72,19; 77,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,56; 76,34</t>
+          <t>71,55; 76,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,87; 75,98</t>
+          <t>71,0; 75,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,08; 74,54</t>
+          <t>66,2; 75,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,19; 73,7</t>
+          <t>69,18; 73,82</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,26; 72,63</t>
+          <t>64,97; 73,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,15; 66,8</t>
+          <t>60,11; 67,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,66; 68,94</t>
+          <t>63,64; 69,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,31; 74,1</t>
+          <t>70,38; 74,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,22; 72,89</t>
+          <t>67,15; 72,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,15; 72,32</t>
+          <t>69,2; 72,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>74,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>73,17%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67,98; 76,19</t>
+          <t>67,03; 75,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,19; 77,84</t>
+          <t>71,54; 77,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,55; 76,06</t>
+          <t>70,71; 75,26</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,75%</t>
+          <t>67,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,95%</t>
+          <t>71,63%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,0; 75,93</t>
+          <t>71,22; 82,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,2; 75,54</t>
+          <t>62,27; 78,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,18; 73,82</t>
+          <t>67,42; 77,38</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>63,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,34%</t>
+          <t>65,93%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,97; 73,01</t>
+          <t>63,73; 72,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,11; 67,0</t>
+          <t>60,01; 66,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,64; 69,06</t>
+          <t>63,03; 68,81</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,23%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,52%</t>
+          <t>70,77%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,38; 74,1</t>
+          <t>70,64; 80,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,15; 72,12</t>
+          <t>64,33; 73,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,2; 72,24</t>
+          <t>67,92; 74,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67,03; 75,51</t>
+          <t>66,61; 75,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,54; 77,17</t>
+          <t>71,62; 77,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,71; 75,26</t>
+          <t>70,86; 75,44</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,22; 82,91</t>
+          <t>71,38; 82,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,27; 78,05</t>
+          <t>61,09; 76,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,42; 77,38</t>
+          <t>67,4; 77,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,73; 72,35</t>
+          <t>63,72; 72,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,01; 66,76</t>
+          <t>60,21; 66,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,03; 68,81</t>
+          <t>63,26; 68,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,64; 80,01</t>
+          <t>70,63; 80,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,33; 73,52</t>
+          <t>63,89; 73,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,92; 74,29</t>
+          <t>68,1; 74,98</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>300935</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>447901</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>748836</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>280994; 316473</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>430925; 464205</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>725196; 772095</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1610725</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1395150</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3005874</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1527506; 1771753</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1256281; 1570839</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2828423; 3237314</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>422367</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>398921</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>821289</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>393271; 447015</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>378439; 420688</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>788075; 852854</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3141</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5265</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2334027</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2241972</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4575999</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2245207; 2544782</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2099795; 2431142</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4403094; 4848260</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>